--- a/Scenarios/common/Nnorm_2019.xlsx
+++ b/Scenarios/common/Nnorm_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1370,13 +1370,14 @@
   <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">

--- a/Scenarios/common/Nnorm_2019.xlsx
+++ b/Scenarios/common/Nnorm_2019.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="338">
   <si>
     <t>JB 1+3</t>
   </si>
@@ -1014,12 +1015,40 @@
   </si>
   <si>
     <t>afgkode</t>
+  </si>
+  <si>
+    <t>norm_JB4</t>
+  </si>
+  <si>
+    <t>norm_JB6</t>
+  </si>
+  <si>
+    <t>yield_JB1</t>
+  </si>
+  <si>
+    <t>yield_JB4</t>
+  </si>
+  <si>
+    <t>yield_JB6</t>
+  </si>
+  <si>
+    <t>yieldfaktorN</t>
+  </si>
+  <si>
+    <t>yieldfaktorDM</t>
+  </si>
+  <si>
+    <t>norm_JB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1048,11 +1077,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10671,4 +10703,732 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>137</v>
+      </c>
+      <c r="G2">
+        <v>145</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>53</v>
+      </c>
+      <c r="J2">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2">
+        <f>0.85*0.108*100/5.7</f>
+        <v>1.6105263157894736</v>
+      </c>
+      <c r="L2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>182</v>
+      </c>
+      <c r="F3">
+        <v>159</v>
+      </c>
+      <c r="G3">
+        <v>166</v>
+      </c>
+      <c r="H3">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>47</v>
+      </c>
+      <c r="J3">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2">
+        <f>0.85*0.115*100/5.7</f>
+        <v>1.7149122807017545</v>
+      </c>
+      <c r="L3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>191</v>
+      </c>
+      <c r="F4">
+        <v>171</v>
+      </c>
+      <c r="G4">
+        <v>194</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>59</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4" s="2">
+        <f>0.85*0.111*100/5.7</f>
+        <v>1.6552631578947368</v>
+      </c>
+      <c r="L4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>206</v>
+      </c>
+      <c r="F5">
+        <v>185</v>
+      </c>
+      <c r="G5">
+        <v>212</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5" si="0">0.85*0.115*100/5.7</f>
+        <v>1.7149122807017545</v>
+      </c>
+      <c r="L5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>156</v>
+      </c>
+      <c r="F6">
+        <v>142</v>
+      </c>
+      <c r="G6">
+        <v>156</v>
+      </c>
+      <c r="H6">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2">
+        <f>0.85*0.096*100/5.7</f>
+        <v>1.4315789473684211</v>
+      </c>
+      <c r="L6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>207</v>
+      </c>
+      <c r="F7">
+        <v>207</v>
+      </c>
+      <c r="G7">
+        <v>215</v>
+      </c>
+      <c r="H7">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
+        <f>0.925*0.194*100/5.7</f>
+        <v>3.1482456140350883</v>
+      </c>
+      <c r="L7">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2">
+        <f>0.852*0.24*100/5.7</f>
+        <v>3.5873684210526315</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <v>170</v>
+      </c>
+      <c r="G9">
+        <v>170</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2">
+        <f>0.85*0.096*100/5.7</f>
+        <v>1.4315789473684211</v>
+      </c>
+      <c r="L9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>237</v>
+      </c>
+      <c r="F10">
+        <v>211</v>
+      </c>
+      <c r="G10">
+        <v>212</v>
+      </c>
+      <c r="H10">
+        <v>570</v>
+      </c>
+      <c r="I10">
+        <v>519</v>
+      </c>
+      <c r="J10">
+        <v>570</v>
+      </c>
+      <c r="K10" s="2">
+        <f>0.24*0.092*100/5.7</f>
+        <v>0.38736842105263153</v>
+      </c>
+      <c r="L10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>140</v>
+      </c>
+      <c r="F11">
+        <v>125</v>
+      </c>
+      <c r="G11">
+        <v>127</v>
+      </c>
+      <c r="H11">
+        <v>527</v>
+      </c>
+      <c r="I11">
+        <v>527</v>
+      </c>
+      <c r="J11">
+        <v>647</v>
+      </c>
+      <c r="K11" s="2">
+        <f>0.22*0*100/5.7</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>188</v>
+      </c>
+      <c r="F12">
+        <v>158</v>
+      </c>
+      <c r="G12">
+        <v>162</v>
+      </c>
+      <c r="H12">
+        <v>11100</v>
+      </c>
+      <c r="I12">
+        <v>10100</v>
+      </c>
+      <c r="J12">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
+        <f>1.14*0.079/6.25</f>
+        <v>1.4409599999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>701</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>139</v>
+      </c>
+      <c r="F13">
+        <v>124</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <v>3700</v>
+      </c>
+      <c r="I13">
+        <v>3700</v>
+      </c>
+      <c r="J13">
+        <v>4100</v>
+      </c>
+      <c r="K13" s="3">
+        <f>1.26*0.156/6.25</f>
+        <v>3.1449600000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>157</v>
+      </c>
+      <c r="F14">
+        <v>157</v>
+      </c>
+      <c r="G14">
+        <v>157</v>
+      </c>
+      <c r="H14">
+        <v>3100</v>
+      </c>
+      <c r="I14">
+        <v>3100</v>
+      </c>
+      <c r="J14">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="3">
+        <f>1.16*0.2/6.25</f>
+        <v>3.712E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>7500</v>
+      </c>
+      <c r="I15">
+        <v>6300</v>
+      </c>
+      <c r="J15">
+        <v>7500</v>
+      </c>
+      <c r="K15" s="3">
+        <f>1.2*0.183/6.25</f>
+        <v>3.5136000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>257</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>424</v>
+      </c>
+      <c r="F16">
+        <v>393</v>
+      </c>
+      <c r="G16">
+        <v>403</v>
+      </c>
+      <c r="H16">
+        <v>9800</v>
+      </c>
+      <c r="I16">
+        <v>8300</v>
+      </c>
+      <c r="J16">
+        <v>8800</v>
+      </c>
+      <c r="K16" s="3">
+        <f>1.03*0.21/6.25</f>
+        <v>3.4608E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>260</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>286</v>
+      </c>
+      <c r="G17">
+        <v>290</v>
+      </c>
+      <c r="H17">
+        <v>8700</v>
+      </c>
+      <c r="I17">
+        <v>7300</v>
+      </c>
+      <c r="J17">
+        <v>7600</v>
+      </c>
+      <c r="K17" s="3">
+        <f>1.21*0.173/6.25</f>
+        <v>3.3492799999999996E-2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>963</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>162</v>
+      </c>
+      <c r="F18">
+        <v>149</v>
+      </c>
+      <c r="G18">
+        <v>145</v>
+      </c>
+      <c r="H18">
+        <v>5700</v>
+      </c>
+      <c r="I18">
+        <v>4400</v>
+      </c>
+      <c r="J18">
+        <v>3900</v>
+      </c>
+      <c r="K18" s="3">
+        <f>1.18*0.168/6.25</f>
+        <v>3.1718400000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>970</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scenarios/common/Nnorm_2019.xlsx
+++ b/Scenarios/common/Nnorm_2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqc268\Desktop\Github\StyrN\Scenarios\common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="338">
   <si>
     <t>JB 1+3</t>
   </si>
@@ -1044,7 +1039,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1391,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10707,10 +10702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F4:F5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11428,6 +11423,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>75</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <v>75</v>
+      </c>
+      <c r="J20">
+        <v>5800</v>
+      </c>
+      <c r="K20">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scenarios/common/Nnorm_2019.xlsx
+++ b/Scenarios/common/Nnorm_2019.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqc268\Desktop\Github\StyrN\Scenarios\common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="339">
   <si>
     <t>JB 1+3</t>
   </si>
@@ -1034,12 +1039,15 @@
   </si>
   <si>
     <t>norm_JB1</t>
+  </si>
+  <si>
+    <t>JB6-6-7-7-7L_low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1386,7 +1394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10705,7 +10713,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11022,8 +11030,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>101</v>
+      <c r="A9" t="s">
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -11131,8 +11139,8 @@
         <v>647</v>
       </c>
       <c r="K11" s="2">
-        <f>0.22*0*100/5.7</f>
-        <v>0</v>
+        <f>0.24*0.092*100/5.7</f>
+        <v>0.38736842105263153</v>
       </c>
       <c r="L11">
         <v>0.22</v>

--- a/Scenarios/common/Nnorm_2019.xlsx
+++ b/Scenarios/common/Nnorm_2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="338">
   <si>
     <t>JB 1+3</t>
   </si>
@@ -1039,9 +1039,6 @@
   </si>
   <si>
     <t>norm_JB1</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_low</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1084,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10713,10 +10710,13 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11030,8 +11030,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>338</v>
+      <c r="A9">
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -11181,6 +11181,9 @@
         <f>1.14*0.079/6.25</f>
         <v>1.4409599999999998E-2</v>
       </c>
+      <c r="L12">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -11217,6 +11220,9 @@
         <f>1.26*0.156/6.25</f>
         <v>3.1449600000000001E-2</v>
       </c>
+      <c r="L13">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -11253,6 +11259,9 @@
         <f>1.16*0.2/6.25</f>
         <v>3.712E-2</v>
       </c>
+      <c r="L14">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -11289,6 +11298,9 @@
         <f>1.2*0.183/6.25</f>
         <v>3.5136000000000001E-2</v>
       </c>
+      <c r="L15">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -11325,6 +11337,9 @@
         <f>1.03*0.21/6.25</f>
         <v>3.4608E-2</v>
       </c>
+      <c r="L16">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -11361,7 +11376,9 @@
         <f>1.21*0.173/6.25</f>
         <v>3.3492799999999996E-2</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -11398,72 +11415,84 @@
         <f>1.18*0.168/6.25</f>
         <v>3.1718400000000001E-2</v>
       </c>
+      <c r="L18">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>970</v>
+        <v>261</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5800</v>
+      </c>
+      <c r="K19">
+        <v>6300</v>
+      </c>
+      <c r="L19">
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>261</v>
+        <v>970</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C20">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6300</v>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/common/Nnorm_2019.xlsx
+++ b/Scenarios/common/Nnorm_2019.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Norm+Udbytte" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="378">
   <si>
     <t>JB 1+3</t>
   </si>
@@ -1040,63 +1041,6 @@
   </si>
   <si>
     <t>norm_JB1</t>
-  </si>
-  <si>
-    <t>JB6_yield_tDM</t>
-  </si>
-  <si>
-    <t>clovergrass</t>
-  </si>
-  <si>
-    <t>Silomajs</t>
-  </si>
-  <si>
-    <t>Winter Wheat JG</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>Rug</t>
-  </si>
-  <si>
-    <t>SB-green</t>
-  </si>
-  <si>
-    <t>Froegraes</t>
-  </si>
-  <si>
-    <t>Spring Wheat</t>
-  </si>
-  <si>
-    <t>Winter Rape PA</t>
-  </si>
-  <si>
-    <t>Wclover</t>
-  </si>
-  <si>
-    <t>Pea</t>
-  </si>
-  <si>
-    <t>Ryegrass</t>
-  </si>
-  <si>
-    <t>Potato; Sava_Figaro</t>
-  </si>
-  <si>
-    <t>Sugar Beet</t>
-  </si>
-  <si>
-    <t>Daisynavn1</t>
-  </si>
-  <si>
-    <t>ClovergrassO</t>
-  </si>
-  <si>
-    <t>Ryegrass_P</t>
-  </si>
-  <si>
-    <t>Potato</t>
   </si>
   <si>
     <t>Kvælstofnormer 2019</t>
@@ -1134,7 +1078,91 @@
     <t/>
   </si>
   <si>
+    <t>Daisynavn1</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Winter Wheat JG</t>
+  </si>
+  <si>
+    <t>Rug</t>
+  </si>
+  <si>
+    <t>Winter Rape PA</t>
+  </si>
+  <si>
+    <t>Spring Wheat</t>
+  </si>
+  <si>
+    <t>SB-green</t>
+  </si>
+  <si>
+    <t>Froegraes</t>
+  </si>
+  <si>
+    <t>Potato; FertOrgaNic</t>
+  </si>
+  <si>
+    <t>Sugar Beet</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
     <t>Graes</t>
+  </si>
+  <si>
+    <t>clovergrass</t>
+  </si>
+  <si>
+    <t>clovergrass_P</t>
+  </si>
+  <si>
+    <t>SilomajsFoulum</t>
+  </si>
+  <si>
+    <t>Spring barley</t>
+  </si>
+  <si>
+    <t>Spring wheat</t>
+  </si>
+  <si>
+    <t>Winter barley</t>
+  </si>
+  <si>
+    <t>Winter Wheat</t>
+  </si>
+  <si>
+    <t>Winter Rye</t>
+  </si>
+  <si>
+    <t>Winter Rape</t>
+  </si>
+  <si>
+    <t>Ryegrass-for seed</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Green-barley</t>
+  </si>
+  <si>
+    <t>Ryegrass-permanent</t>
+  </si>
+  <si>
+    <t>Clovergrass_5yr</t>
+  </si>
+  <si>
+    <t>Clovergrass _1-4yr</t>
+  </si>
+  <si>
+    <t>Clovergrass_fall</t>
   </si>
 </sst>
 </file>
@@ -1146,13 +1174,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1209,30 +1231,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1546,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10852,10 +10879,778 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>160</v>
+      </c>
+      <c r="G2">
+        <v>137</v>
+      </c>
+      <c r="H2">
+        <v>145</v>
+      </c>
+      <c r="I2">
+        <v>58</v>
+      </c>
+      <c r="J2">
+        <v>53</v>
+      </c>
+      <c r="K2">
+        <v>65</v>
+      </c>
+      <c r="L2" s="14">
+        <f>0.85*0.108*100/6.25</f>
+        <v>1.4687999999999999</v>
+      </c>
+      <c r="M2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>182</v>
+      </c>
+      <c r="G3">
+        <v>159</v>
+      </c>
+      <c r="H3">
+        <v>166</v>
+      </c>
+      <c r="I3">
+        <v>52</v>
+      </c>
+      <c r="J3">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
+      </c>
+      <c r="L3" s="14">
+        <f>0.85*0.115*100/6.25</f>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="M3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>191</v>
+      </c>
+      <c r="G4">
+        <v>171</v>
+      </c>
+      <c r="H4">
+        <v>194</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>59</v>
+      </c>
+      <c r="K4">
+        <v>78</v>
+      </c>
+      <c r="L4" s="14">
+        <f>0.85*0.111*100/6.25</f>
+        <v>1.5096000000000001</v>
+      </c>
+      <c r="M4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>206</v>
+      </c>
+      <c r="G5">
+        <v>185</v>
+      </c>
+      <c r="H5">
+        <v>212</v>
+      </c>
+      <c r="I5">
+        <v>72</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>86</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1.56</v>
+      </c>
+      <c r="M5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>156</v>
+      </c>
+      <c r="G6">
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <v>156</v>
+      </c>
+      <c r="I6">
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <v>63</v>
+      </c>
+      <c r="K6">
+        <v>75</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="M6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>207</v>
+      </c>
+      <c r="G7">
+        <v>207</v>
+      </c>
+      <c r="H7">
+        <v>215</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>43</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="M7">
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>45</v>
+      </c>
+      <c r="L8" s="14">
+        <v>3.27</v>
+      </c>
+      <c r="M8" s="3">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>125</v>
+      </c>
+      <c r="H9">
+        <v>125</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="M9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>237</v>
+      </c>
+      <c r="G10">
+        <v>211</v>
+      </c>
+      <c r="H10">
+        <v>212</v>
+      </c>
+      <c r="I10">
+        <v>570</v>
+      </c>
+      <c r="J10">
+        <v>519</v>
+      </c>
+      <c r="K10">
+        <v>570</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="M10">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>125</v>
+      </c>
+      <c r="H11">
+        <v>127</v>
+      </c>
+      <c r="I11">
+        <v>527</v>
+      </c>
+      <c r="J11">
+        <v>527</v>
+      </c>
+      <c r="K11">
+        <v>647</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.21</v>
+      </c>
+      <c r="M11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>188</v>
+      </c>
+      <c r="G12">
+        <v>158</v>
+      </c>
+      <c r="H12">
+        <v>162</v>
+      </c>
+      <c r="I12">
+        <v>11100</v>
+      </c>
+      <c r="J12">
+        <v>10100</v>
+      </c>
+      <c r="K12">
+        <v>11000</v>
+      </c>
+      <c r="L12" s="3">
+        <f>1.14*0.079/6.25</f>
+        <v>1.4409599999999998E-2</v>
+      </c>
+      <c r="M12">
+        <f>1.14/1000</f>
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>701</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>139</v>
+      </c>
+      <c r="G13">
+        <v>124</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>3700</v>
+      </c>
+      <c r="J13">
+        <v>3700</v>
+      </c>
+      <c r="K13">
+        <v>4100</v>
+      </c>
+      <c r="L13" s="3">
+        <f>1.26*0.156/6.25</f>
+        <v>3.1449600000000001E-2</v>
+      </c>
+      <c r="M13">
+        <f>1.26/1000</f>
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>252</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>157</v>
+      </c>
+      <c r="G14">
+        <v>157</v>
+      </c>
+      <c r="H14">
+        <v>157</v>
+      </c>
+      <c r="I14">
+        <v>3100</v>
+      </c>
+      <c r="J14">
+        <v>3100</v>
+      </c>
+      <c r="K14">
+        <v>3100</v>
+      </c>
+      <c r="L14" s="3">
+        <f>1.16*0.2/6.25</f>
+        <v>3.712E-2</v>
+      </c>
+      <c r="M14">
+        <f>1.16/1000</f>
+        <v>1.16E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>260</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15">
+        <v>286</v>
+      </c>
+      <c r="H15">
+        <v>290</v>
+      </c>
+      <c r="I15">
+        <v>8700</v>
+      </c>
+      <c r="J15">
+        <v>7300</v>
+      </c>
+      <c r="K15">
+        <v>7600</v>
+      </c>
+      <c r="L15" s="3">
+        <f>1.21*0.173/6.25</f>
+        <v>3.3492799999999996E-2</v>
+      </c>
+      <c r="M15" s="11">
+        <f>1.21/1000</f>
+        <v>1.2099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>963</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>162</v>
+      </c>
+      <c r="G16">
+        <v>149</v>
+      </c>
+      <c r="H16">
+        <v>145</v>
+      </c>
+      <c r="I16">
+        <v>5700</v>
+      </c>
+      <c r="J16">
+        <v>4400</v>
+      </c>
+      <c r="K16">
+        <v>3900</v>
+      </c>
+      <c r="L16" s="3">
+        <f>1.18*0.168/6.25</f>
+        <v>3.1718400000000001E-2</v>
+      </c>
+      <c r="M16">
+        <f>1.18/1000</f>
+        <v>1.1799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>261</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>7500</v>
+      </c>
+      <c r="J17">
+        <v>6300</v>
+      </c>
+      <c r="K17">
+        <v>7500</v>
+      </c>
+      <c r="L17" s="3">
+        <f>1.2*0.183/6.25</f>
+        <v>3.5136000000000001E-2</v>
+      </c>
+      <c r="M17" s="11">
+        <f>1.2/1000</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>970</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S327"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10865,40 +11660,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="A1" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -10948,42 +11743,42 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="I3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -13212,16 +14007,16 @@
         <v>114</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -13268,16 +14063,16 @@
         <v>114</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="N45" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -14976,16 +15771,13 @@
         <v>427</v>
       </c>
       <c r="O74">
-        <f>J74*0.024</f>
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <f>K74*0.024</f>
-        <v>9.6479999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <f>L74*0.024</f>
-        <v>10.247999999999999</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -16778,19 +17570,19 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="K105" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L105" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M105" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="N105" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -17132,19 +17924,19 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="K111" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L111" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M111" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="N111" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -24745,1126 +25537,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="I1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N1" t="s">
-        <v>338</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="F2">
-        <v>160</v>
-      </c>
-      <c r="G2">
-        <v>137</v>
-      </c>
-      <c r="H2">
         <v>145</v>
       </c>
-      <c r="I2">
-        <v>58</v>
-      </c>
-      <c r="J2">
-        <v>53</v>
-      </c>
-      <c r="K2">
-        <v>65</v>
-      </c>
-      <c r="L2" s="2">
-        <f>0.85*0.108*100/5.7</f>
-        <v>1.6105263157894736</v>
-      </c>
-      <c r="M2">
-        <f>0.85/10</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="N2" s="2">
-        <f>(M2*K2+M2*J2+M2*I2)/3</f>
-        <v>4.9866666666666664</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q2">
-        <v>5.8593289900957402</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R8" si="0">(Q2-N2)/Q2</f>
-        <v>0.14893553936025269</v>
-      </c>
-      <c r="T2" t="s">
-        <v>345</v>
-      </c>
-      <c r="U2">
-        <v>2.0368375462962902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="F3">
-        <v>182</v>
-      </c>
-      <c r="G3">
-        <v>159</v>
-      </c>
-      <c r="H3">
         <v>166</v>
       </c>
-      <c r="I3">
-        <v>52</v>
-      </c>
-      <c r="J3">
-        <v>47</v>
-      </c>
-      <c r="K3">
-        <v>58</v>
-      </c>
-      <c r="L3" s="2">
-        <f>0.85*0.115*100/5.7</f>
-        <v>1.7149122807017545</v>
-      </c>
-      <c r="M3">
-        <f>0.85/10</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="N3" s="2">
-        <f>(M3*K3+M3*J3+M3*I3)/3</f>
-        <v>4.4483333333333333</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q3">
-        <v>3.5769147654320901</v>
-      </c>
-      <c r="R3" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.24362296141993087</v>
-      </c>
-      <c r="T3" t="s">
-        <v>346</v>
-      </c>
-      <c r="U3">
-        <v>3.5769147654320901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="F4">
-        <v>191</v>
-      </c>
-      <c r="G4">
-        <v>171</v>
-      </c>
-      <c r="H4">
         <v>194</v>
       </c>
-      <c r="I4">
-        <v>63</v>
-      </c>
-      <c r="J4">
-        <v>59</v>
-      </c>
-      <c r="K4">
-        <v>78</v>
-      </c>
-      <c r="L4" s="2">
-        <f>0.85*0.111*100/5.7</f>
-        <v>1.6552631578947368</v>
-      </c>
-      <c r="M4">
-        <f>0.85/10</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" ref="N4:N18" si="1">(M4*K4+M4*J4+M4*I4)/3</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4">
-        <v>5.5092956216931102</v>
-      </c>
-      <c r="R4" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.8564639797853817E-2</v>
-      </c>
-      <c r="T4" t="s">
-        <v>347</v>
-      </c>
-      <c r="U4">
-        <v>4.0715632407407396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="F5">
-        <v>206</v>
-      </c>
-      <c r="G5">
-        <v>185</v>
-      </c>
-      <c r="H5">
         <v>212</v>
       </c>
-      <c r="I5">
-        <v>72</v>
-      </c>
-      <c r="J5">
-        <v>70</v>
-      </c>
-      <c r="K5">
-        <v>86</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5" si="2">0.85*0.115*100/5.7</f>
-        <v>1.7149122807017545</v>
-      </c>
-      <c r="M5">
-        <f>0.85/10</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4599999999999982</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q5">
-        <v>7.8166112037037001</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17355490357009271</v>
-      </c>
-      <c r="T5" t="s">
-        <v>344</v>
-      </c>
-      <c r="U5">
-        <v>4.2448152858906498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>156</v>
       </c>
-      <c r="G6">
-        <v>142</v>
-      </c>
-      <c r="H6">
-        <v>156</v>
-      </c>
-      <c r="I6">
-        <v>62</v>
-      </c>
-      <c r="J6">
-        <v>63</v>
-      </c>
-      <c r="K6">
-        <v>75</v>
-      </c>
-      <c r="L6" s="2">
-        <f>0.85*0.096*100/5.7</f>
-        <v>1.4315789473684211</v>
-      </c>
-      <c r="M6">
-        <f>0.85/10</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q6">
-        <v>5.92668768518518</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="0"/>
-        <v>4.3872907149887827E-2</v>
-      </c>
-      <c r="T6" t="s">
-        <v>348</v>
-      </c>
-      <c r="U6">
-        <v>4.9932492770632804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>207</v>
+      </c>
+      <c r="F7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>207</v>
-      </c>
-      <c r="G7">
-        <v>207</v>
-      </c>
-      <c r="H7">
-        <v>215</v>
-      </c>
-      <c r="I7">
-        <v>38</v>
-      </c>
-      <c r="J7">
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <v>43</v>
-      </c>
-      <c r="L7" s="2">
-        <f>0.925*0.194*100/5.7</f>
-        <v>3.1482456140350883</v>
-      </c>
-      <c r="M7">
-        <f>0.925/10</f>
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6691666666666669</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q7">
-        <v>4.0715632407407396</v>
-      </c>
-      <c r="R7" s="4">
-        <f t="shared" si="0"/>
-        <v>9.8830977263873881E-2</v>
-      </c>
-      <c r="T7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7">
-        <v>5.5092956216931102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>45</v>
-      </c>
-      <c r="J8">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>45</v>
-      </c>
-      <c r="L8" s="2">
-        <f>0.852*0.24*100/5.7</f>
-        <v>3.5873684210526315</v>
-      </c>
-      <c r="M8" s="3">
-        <f>0.852/10</f>
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>3.8340000000000001</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q8">
-        <v>5.8646024537037</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.34624724689075964</v>
-      </c>
-      <c r="T8" t="s">
-        <v>342</v>
-      </c>
-      <c r="U8">
-        <v>5.8593289900957402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>125</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>237</v>
+      </c>
+      <c r="E10">
+        <v>211</v>
+      </c>
+      <c r="F10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>125</v>
+      </c>
+      <c r="F11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>188</v>
+      </c>
+      <c r="E12">
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>139</v>
+      </c>
+      <c r="E13">
+        <v>124</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>170</v>
-      </c>
-      <c r="G9">
-        <v>170</v>
-      </c>
-      <c r="H9">
-        <v>170</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2">
-        <f>0.85*0.096*100/5.7</f>
-        <v>1.4315789473684211</v>
-      </c>
-      <c r="M9">
-        <f>0.85/10</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q9">
-        <v>1.36</v>
-      </c>
-      <c r="R9" s="4">
-        <f>(Q9-N9)/Q9</f>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="S9" s="4">
-        <f>(Q9-N9)/N9</f>
-        <v>0.33333333333333343</v>
-      </c>
-      <c r="T9" t="s">
-        <v>349</v>
-      </c>
-      <c r="U9">
-        <v>5.8646024537037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>237</v>
-      </c>
-      <c r="G10">
-        <v>211</v>
-      </c>
-      <c r="H10">
-        <v>212</v>
-      </c>
-      <c r="I10">
-        <v>570</v>
-      </c>
-      <c r="J10">
-        <v>519</v>
-      </c>
-      <c r="K10">
-        <v>570</v>
-      </c>
-      <c r="L10" s="2">
-        <f>0.24*0.092*100/5.7</f>
-        <v>0.38736842105263153</v>
-      </c>
-      <c r="M10">
-        <f>0.24/10</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="1"/>
-        <v>13.272</v>
-      </c>
-      <c r="O10" s="2">
-        <f>402*M10</f>
-        <v>9.6479999999999997</v>
-      </c>
-      <c r="P10" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q10">
-        <v>7.6641466296296201</v>
-      </c>
-      <c r="R10" s="4">
-        <f>(Q10-N10)/Q10</f>
-        <v>-0.73169964529258846</v>
-      </c>
-      <c r="T10" t="s">
-        <v>343</v>
-      </c>
-      <c r="U10">
-        <v>6.1433395679012301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>140</v>
-      </c>
-      <c r="G11">
-        <v>125</v>
-      </c>
-      <c r="H11">
-        <v>127</v>
-      </c>
-      <c r="I11">
-        <v>527</v>
-      </c>
-      <c r="J11">
-        <v>527</v>
-      </c>
-      <c r="K11">
-        <v>647</v>
-      </c>
-      <c r="L11" s="2">
-        <f>0.24*0.092*100/5.7</f>
-        <v>0.38736842105263153</v>
-      </c>
-      <c r="M11">
-        <f>0.22/10</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="1"/>
-        <v>12.473999999999998</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q11">
-        <v>15.0460691358024</v>
-      </c>
-      <c r="R11" s="4">
-        <f t="shared" ref="R11:R13" si="3">(Q11-N11)/Q11</f>
-        <v>0.17094625264495927</v>
-      </c>
-      <c r="T11" t="s">
-        <v>350</v>
-      </c>
-      <c r="U11">
-        <v>6.9265215692542697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>188</v>
-      </c>
-      <c r="G12">
-        <v>158</v>
-      </c>
-      <c r="H12">
-        <v>162</v>
-      </c>
-      <c r="I12">
-        <v>11100</v>
-      </c>
-      <c r="J12">
-        <v>10100</v>
-      </c>
-      <c r="K12">
-        <v>11000</v>
-      </c>
-      <c r="L12" s="3">
-        <f>1.14*0.079/6.25</f>
-        <v>1.4409599999999998E-2</v>
-      </c>
-      <c r="M12">
-        <f>1.14/1000</f>
-        <v>1.14E-3</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="1"/>
-        <v>12.235999999999999</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q12">
-        <v>9.9011787422839497</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.23581245410154725</v>
-      </c>
-      <c r="T12" t="s">
-        <v>341</v>
-      </c>
-      <c r="U12">
-        <v>7.6373889571462303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>701</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>139</v>
-      </c>
-      <c r="G13">
-        <v>124</v>
-      </c>
-      <c r="H13">
-        <v>120</v>
-      </c>
-      <c r="I13">
-        <v>3700</v>
-      </c>
-      <c r="J13">
-        <v>3700</v>
-      </c>
-      <c r="K13">
-        <v>4100</v>
-      </c>
-      <c r="L13" s="3">
-        <f>1.26*0.156/6.25</f>
-        <v>3.1449600000000001E-2</v>
-      </c>
-      <c r="M13">
-        <f>1.26/1000</f>
-        <v>1.2600000000000001E-3</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="1"/>
-        <v>4.8299999999999992</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q13">
-        <v>3.96531763395061</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.21806131207398738</v>
-      </c>
-      <c r="T13" t="s">
-        <v>351</v>
-      </c>
-      <c r="U13">
-        <v>7.6641466296296201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>252</v>
-      </c>
-      <c r="B14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F14">
         <v>157</v>
       </c>
-      <c r="G14">
-        <v>157</v>
-      </c>
-      <c r="H14">
-        <v>157</v>
-      </c>
-      <c r="I14">
-        <v>3100</v>
-      </c>
-      <c r="J14">
-        <v>3100</v>
-      </c>
-      <c r="K14">
-        <v>3100</v>
-      </c>
-      <c r="L14" s="3">
-        <f>1.16*0.2/6.25</f>
-        <v>3.712E-2</v>
-      </c>
-      <c r="M14">
-        <f>1.16/1000</f>
-        <v>1.16E-3</v>
-      </c>
-      <c r="N14" s="2">
-        <f>J14*M14</f>
-        <v>3.5960000000000001</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="R14" s="4"/>
-      <c r="T14" t="s">
-        <v>340</v>
-      </c>
-      <c r="U14">
-        <v>9.9011787422839497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>257</v>
-      </c>
-      <c r="B15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="F15">
-        <v>424</v>
-      </c>
-      <c r="G15">
-        <v>393</v>
-      </c>
-      <c r="H15">
-        <v>403</v>
-      </c>
-      <c r="I15">
-        <v>9800</v>
-      </c>
-      <c r="J15">
-        <v>8300</v>
-      </c>
-      <c r="K15">
-        <v>8800</v>
-      </c>
-      <c r="L15" s="3">
-        <f>1.03*0.21/6.25</f>
-        <v>3.4608E-2</v>
-      </c>
-      <c r="M15">
-        <f>1.03/1000</f>
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="1"/>
-        <v>9.2356666666666669</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="R15" s="4"/>
-      <c r="T15" t="s">
-        <v>339</v>
-      </c>
-      <c r="U15">
-        <v>10.8355581665008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>260</v>
-      </c>
-      <c r="B16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
+        <v>162</v>
+      </c>
+      <c r="E16">
+        <v>149</v>
+      </c>
+      <c r="F16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17">
         <v>95</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-      <c r="G16">
-        <v>286</v>
-      </c>
-      <c r="H16">
-        <v>290</v>
-      </c>
-      <c r="I16">
-        <v>8700</v>
-      </c>
-      <c r="J16">
-        <v>7300</v>
-      </c>
-      <c r="K16">
-        <v>7600</v>
-      </c>
-      <c r="L16" s="3">
-        <f>1.21*0.173/6.25</f>
-        <v>3.3492799999999996E-2</v>
-      </c>
-      <c r="M16" s="5">
-        <f>1.21/1000</f>
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="1"/>
-        <v>9.5186666666666664</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="T16" t="s">
-        <v>352</v>
-      </c>
-      <c r="U16">
-        <v>15.0460691358024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>963</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>162</v>
-      </c>
-      <c r="G17">
-        <v>149</v>
-      </c>
-      <c r="H17">
-        <v>145</v>
-      </c>
-      <c r="I17">
-        <v>5700</v>
-      </c>
-      <c r="J17">
-        <v>4400</v>
-      </c>
-      <c r="K17">
-        <v>3900</v>
-      </c>
-      <c r="L17" s="3">
-        <f>1.18*0.168/6.25</f>
-        <v>3.1718400000000001E-2</v>
-      </c>
-      <c r="M17">
-        <f>1.18/1000</f>
-        <v>1.1799999999999998E-3</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q17">
-        <v>10.8355581665008</v>
-      </c>
-      <c r="R17" s="4">
-        <f>(Q17-N16)/Q17</f>
-        <v>0.1215342559745038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>261</v>
-      </c>
-      <c r="B18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18">
-        <v>95</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
         <v>75</v>
       </c>
-      <c r="G18">
-        <v>75</v>
-      </c>
-      <c r="H18">
-        <v>75</v>
-      </c>
-      <c r="I18">
-        <v>75</v>
-      </c>
-      <c r="J18">
-        <v>75</v>
-      </c>
-      <c r="K18">
-        <v>5800</v>
-      </c>
-      <c r="L18">
-        <v>6300</v>
-      </c>
-      <c r="M18">
-        <f>1.2/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3799999999999994</v>
-      </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>970</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O20" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A24:B53">
-    <sortCondition ref="A24:A53"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>